--- a/biology/Médecine/1273_en_santé_et_médecine/1273_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1273_en_santé_et_médecine/1273_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1273_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1273_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1273 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1273_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1273_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Construction du nouvel hôtel-Dieu de Laon[1].
-La table des pauvres de Dunkerque est mentionnée pour la première fois, dans le testament de Marguerite de Constantinople, comtesse de Flandre[2].
-La présence d'un hospice de passants est attestée à Villeneuve, au Châtel-Argent, dans le val d'Aoste, dans une charte où Philippe, comte de Savoie, octroie au bourg ses patentes[3].
-L'ancien hôpital est attesté à Châtillon, dans la Dombes, sur une charte de franchises accordée par Amédée, futur comte de Savoie[4].
-Un hôpital est signalé à Saint-Agrève, en Vivarais[5].
-L'hôpital Sancti Salvatoris de Summiportus in valle Caroli est mentionné à Valcarlos, au col du Somport, en Navarre[6].
-Le comte de Richemont, qui deviendra duc de Bretagne sous le nom de Jean II, fonde pour deux Carmes, à Ploërmel, un prieuré qui deviendra « l'hôpital d'en-bas[7],[8] ».
-Fondation du Hospital of God (en) à Greatham, dans le Hampshire en Angleterre[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Construction du nouvel hôtel-Dieu de Laon.
+La table des pauvres de Dunkerque est mentionnée pour la première fois, dans le testament de Marguerite de Constantinople, comtesse de Flandre.
+La présence d'un hospice de passants est attestée à Villeneuve, au Châtel-Argent, dans le val d'Aoste, dans une charte où Philippe, comte de Savoie, octroie au bourg ses patentes.
+L'ancien hôpital est attesté à Châtillon, dans la Dombes, sur une charte de franchises accordée par Amédée, futur comte de Savoie.
+Un hôpital est signalé à Saint-Agrève, en Vivarais.
+L'hôpital Sancti Salvatoris de Summiportus in valle Caroli est mentionné à Valcarlos, au col du Somport, en Navarre.
+Le comte de Richemont, qui deviendra duc de Bretagne sous le nom de Jean II, fonde pour deux Carmes, à Ploërmel, un prieuré qui deviendra « l'hôpital d'en-bas, ».
+Fondation du Hospital of God (en) à Greatham, dans le Hampshire en Angleterre.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1273_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1273_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Aufredus de Novo Castro, clerc et médecin de Robert II, comte d'Artois[10].
-1253-1273 : fl. Thomas de Weseham, médecin de Henri III, roi d'Angleterre[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Aufredus de Novo Castro, clerc et médecin de Robert II, comte d'Artois.
+1253-1273 : fl. Thomas de Weseham, médecin de Henri III, roi d'Angleterre.</t>
         </is>
       </c>
     </row>
